--- a/PetsListExtraction/Data/Config.xlsx
+++ b/PetsListExtraction/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeRadu\UBB RPA Mentorship\Project AUT3\AUT3-RPA\PetsListExtraction\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iulia\OneDrive\Documents\UiPath\project\AUT3-RPA\PetsListExtraction\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A18226D-A9DA-4CD6-B5FB-842DE0E74881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2B2B97-0E1A-4107-A20E-D0800CEFBD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5832" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Url_Cats</t>
   </si>
   <si>
-    <t>https://…</t>
-  </si>
-  <si>
     <t>Status_Success</t>
   </si>
   <si>
@@ -187,13 +184,37 @@
   </si>
   <si>
     <t>System Exception</t>
+  </si>
+  <si>
+    <t>https://www.siriusanimalrescue.ro/adopta-ro/catei/disponibili/</t>
+  </si>
+  <si>
+    <t>https://www.siriusanimalrescue.ro/adopta-ro/pisici/pisici-diponibile/</t>
+  </si>
+  <si>
+    <t>Output_table_path</t>
+  </si>
+  <si>
+    <t>D:\test.xlsx</t>
+  </si>
+  <si>
+    <t>iuliaionascu19@gmail.com</t>
+  </si>
+  <si>
+    <t>Email_status</t>
+  </si>
+  <si>
+    <t>Status_table_path</t>
+  </si>
+  <si>
+    <t>D:\DataScraping.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -217,6 +238,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -235,10 +262,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -248,8 +276,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -554,7 +584,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -564,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -647,46 +677,67 @@
       <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
-        <v>47</v>
+      <c r="B7" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
-        <v>47</v>
+      <c r="B8" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
@@ -1672,8 +1723,13 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{5EAB0416-A679-459C-B953-F2F35F887AAB}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{86745651-81D4-4C6A-BE45-36F9A39A233C}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{502DFF42-C7BB-4F10-98A0-D05F63BD7E8C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1681,7 +1737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
